--- a/SLK01D.xlsx
+++ b/SLK01D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="93">
   <si>
     <t/>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>PIA 100 KCG HJ 138G</t>
+  </si>
+  <si>
+    <t>20139129</t>
+  </si>
+  <si>
+    <t>MAIRA BOLU BOLU 35G</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>20106148</t>
@@ -673,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1314,21 +1323,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -1337,18 +1346,18 @@
         <v>19</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1357,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
@@ -1365,10 +1374,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -1377,7 +1386,7 @@
         <v>19</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>36</v>
@@ -1385,10 +1394,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -1397,18 +1406,18 @@
         <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -1417,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>20</v>
@@ -1425,10 +1434,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -1437,9 +1446,29 @@
         <v>19</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
